--- a/final.xlsx
+++ b/final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miras\Desktop\독수리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miras\Downloads\250515-main\250515-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A68B87-DB46-4455-86F9-7CE1CD680A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B8A810-AFE1-4B18-A724-E06CE93752C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32490" yWindow="2130" windowWidth="32985" windowHeight="18210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3390" windowWidth="32985" windowHeight="18210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t xml:space="preserve"> 이사 견적 및 계약서            </t>
   </si>
@@ -180,12 +180,6 @@
   </si>
   <si>
     <t>이사비용</t>
-  </si>
-  <si>
-    <t>상차(사)</t>
-  </si>
-  <si>
-    <t>하차(사)</t>
   </si>
   <si>
     <t xml:space="preserve">합    계 </t>
@@ -942,8 +936,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1286,8 +1280,8 @@
   </sheetPr>
   <dimension ref="B1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1332,10 +1326,7 @@
         <v>3</v>
       </c>
       <c r="J2" s="7"/>
-      <c r="K2" s="74">
-        <f ca="1">TODAY()</f>
-        <v>45791</v>
-      </c>
+      <c r="K2" s="74"/>
       <c r="L2" s="75"/>
     </row>
     <row r="3" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1367,20 +1358,20 @@
       <c r="H4" s="64"/>
       <c r="I4" s="30"/>
       <c r="J4" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="8" t="s">
-        <v>52</v>
+      <c r="D5" s="82" t="s">
+        <v>50</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
@@ -1388,7 +1379,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="8"/>
       <c r="J5" s="41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>7</v>
@@ -1397,11 +1388,11 @@
     </row>
     <row r="6" spans="2:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="8" t="s">
-        <v>52</v>
+      <c r="D6" s="82" t="s">
+        <v>50</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
@@ -1409,7 +1400,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="8"/>
       <c r="J6" s="54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>8</v>
@@ -1425,7 +1416,7 @@
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="72" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F7" s="73"/>
       <c r="G7" s="6"/>
@@ -1437,13 +1428,13 @@
     </row>
     <row r="8" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="47" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="48"/>
       <c r="D8" s="48"/>
       <c r="E8" s="48"/>
       <c r="F8" s="49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G8" s="48"/>
       <c r="H8" s="48"/>
@@ -1456,7 +1447,7 @@
     </row>
     <row r="9" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="46"/>
       <c r="D9" s="46"/>
@@ -1487,7 +1478,7 @@
       <c r="H10" s="46"/>
       <c r="I10" s="46"/>
       <c r="J10" s="35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K10" s="46"/>
       <c r="L10" s="51"/>
@@ -1709,7 +1700,7 @@
       <c r="F22" s="21"/>
       <c r="G22" s="57"/>
       <c r="H22" s="28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I22" s="65"/>
       <c r="J22" s="70"/>
@@ -1717,9 +1708,7 @@
       <c r="L22" s="18"/>
     </row>
     <row r="23" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="34" t="s">
-        <v>48</v>
-      </c>
+      <c r="B23" s="34"/>
       <c r="C23" s="22">
         <v>0</v>
       </c>
@@ -1728,7 +1717,7 @@
       <c r="F23" s="21"/>
       <c r="G23" s="57"/>
       <c r="H23" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I23" s="19"/>
       <c r="J23" s="68"/>
@@ -1736,9 +1725,7 @@
       <c r="L23" s="58"/>
     </row>
     <row r="24" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="34" t="s">
-        <v>49</v>
-      </c>
+      <c r="B24" s="34"/>
       <c r="C24" s="24">
         <v>0</v>
       </c>
@@ -1747,10 +1734,10 @@
       <c r="F24" s="21"/>
       <c r="G24" s="57"/>
       <c r="H24" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I24" s="31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J24" s="66"/>
       <c r="K24" s="67"/>
@@ -1758,7 +1745,7 @@
     </row>
     <row r="25" spans="2:12" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="21"/>
@@ -1793,8 +1780,8 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
       <c r="L27" s="15"/>
     </row>
     <row r="28" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1806,8 +1793,8 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
       <c r="L28" s="15"/>
     </row>
     <row r="29" spans="2:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
